--- a/resources/data/classroom.xlsx
+++ b/resources/data/classroom.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="671" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1005" uniqueCount="231">
   <si>
     <t>building</t>
   </si>
@@ -29,85 +29,139 @@
     <t>501</t>
   </si>
   <si>
+    <t>109</t>
+  </si>
+  <si>
     <t>H6</t>
   </si>
   <si>
     <t>404</t>
   </si>
   <si>
+    <t>68</t>
+  </si>
+  <si>
     <t>HGX</t>
   </si>
   <si>
     <t>209</t>
   </si>
   <si>
+    <t>85</t>
+  </si>
+  <si>
     <t>Z2</t>
   </si>
   <si>
     <t>301</t>
   </si>
   <si>
+    <t>91</t>
+  </si>
+  <si>
     <t>H2</t>
   </si>
   <si>
     <t>101</t>
   </si>
   <si>
+    <t>167</t>
+  </si>
+  <si>
     <t>H5</t>
   </si>
   <si>
     <t>306</t>
   </si>
   <si>
+    <t>48</t>
+  </si>
+  <si>
     <t>415</t>
   </si>
   <si>
+    <t>45</t>
+  </si>
+  <si>
     <t>207</t>
   </si>
   <si>
+    <t>44</t>
+  </si>
+  <si>
     <t>103</t>
   </si>
   <si>
+    <t>125</t>
+  </si>
+  <si>
     <t>310</t>
   </si>
   <si>
     <t>502</t>
   </si>
   <si>
+    <t>72</t>
+  </si>
+  <si>
     <t>403</t>
   </si>
   <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
     <t>210</t>
   </si>
   <si>
+    <t>50</t>
+  </si>
+  <si>
     <t>307</t>
   </si>
   <si>
+    <t>106</t>
+  </si>
+  <si>
     <t>102</t>
   </si>
   <si>
+    <t>100</t>
+  </si>
+  <si>
     <t>JA</t>
   </si>
   <si>
     <t>205</t>
   </si>
   <si>
+    <t>180</t>
+  </si>
+  <si>
     <t>208</t>
   </si>
   <si>
     <t>203</t>
   </si>
   <si>
+    <t>62</t>
+  </si>
+  <si>
     <t>H3</t>
   </si>
   <si>
+    <t>95</t>
+  </si>
+  <si>
     <t>F2</t>
   </si>
   <si>
     <t>606</t>
   </si>
   <si>
-    <t>109</t>
+    <t>30</t>
   </si>
   <si>
     <t>H光华西主楼1</t>
@@ -116,12 +170,21 @@
     <t>820</t>
   </si>
   <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>71</t>
+  </si>
+  <si>
     <t>JB</t>
   </si>
   <si>
     <t>409</t>
   </si>
   <si>
+    <t>1019</t>
+  </si>
+  <si>
     <t>405</t>
   </si>
   <si>
@@ -131,15 +194,24 @@
     <t>305</t>
   </si>
   <si>
+    <t>107</t>
+  </si>
+  <si>
     <t>H光华西主楼2</t>
   </si>
   <si>
     <t>504</t>
   </si>
   <si>
+    <t>60</t>
+  </si>
+  <si>
     <t>313</t>
   </si>
   <si>
+    <t>58</t>
+  </si>
+  <si>
     <t>H物理楼</t>
   </si>
   <si>
@@ -152,96 +224,189 @@
     <t>503</t>
   </si>
   <si>
+    <t>110</t>
+  </si>
+  <si>
     <t>F1</t>
   </si>
   <si>
     <t>303</t>
   </si>
   <si>
+    <t>185</t>
+  </si>
+  <si>
     <t>H生物</t>
   </si>
   <si>
+    <t>51</t>
+  </si>
+  <si>
     <t>402</t>
   </si>
   <si>
+    <t>21</t>
+  </si>
+  <si>
     <t>114</t>
   </si>
   <si>
     <t>HQ</t>
   </si>
   <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
     <t>104</t>
   </si>
   <si>
+    <t>139</t>
+  </si>
+  <si>
     <t>302</t>
   </si>
   <si>
+    <t>82</t>
+  </si>
+  <si>
+    <t>94</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
     <t>H史带楼</t>
   </si>
   <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>77</t>
+  </si>
+  <si>
     <t>509</t>
   </si>
   <si>
+    <t>20</t>
+  </si>
+  <si>
     <t>406</t>
   </si>
   <si>
+    <t>98</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
     <t>204</t>
   </si>
   <si>
+    <t>142</t>
+  </si>
+  <si>
     <t>316</t>
   </si>
   <si>
     <t>304</t>
   </si>
   <si>
-    <t>106</t>
+    <t>49</t>
   </si>
   <si>
     <t>213</t>
   </si>
   <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>260</t>
+  </si>
+  <si>
     <t>201</t>
   </si>
   <si>
+    <t>170</t>
+  </si>
+  <si>
     <t>H文科楼</t>
   </si>
   <si>
     <t>543</t>
   </si>
   <si>
+    <t>43</t>
+  </si>
+  <si>
     <t>H抹云楼</t>
   </si>
   <si>
     <t>115</t>
   </si>
   <si>
+    <t>38</t>
+  </si>
+  <si>
     <t>401</t>
   </si>
   <si>
+    <t>40</t>
+  </si>
+  <si>
     <t>574</t>
   </si>
   <si>
+    <t>36</t>
+  </si>
+  <si>
     <t>414</t>
   </si>
   <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
     <t>112</t>
   </si>
   <si>
+    <t>121</t>
+  </si>
+  <si>
     <t>H北欧中心</t>
   </si>
   <si>
+    <t>76</t>
+  </si>
+  <si>
     <t>512</t>
   </si>
   <si>
     <t>506</t>
   </si>
   <si>
+    <t>69</t>
+  </si>
+  <si>
     <t>Z软院机房</t>
   </si>
   <si>
     <t>206</t>
   </si>
   <si>
+    <t>105</t>
+  </si>
+  <si>
     <t>309</t>
   </si>
   <si>
@@ -254,13 +419,16 @@
     <t>202</t>
   </si>
   <si>
+    <t>46</t>
+  </si>
+  <si>
     <t>604</t>
   </si>
   <si>
     <t>407</t>
   </si>
   <si>
-    <t>110</t>
+    <t>138</t>
   </si>
   <si>
     <t>214</t>
@@ -272,18 +440,30 @@
     <t>H立人生物楼</t>
   </si>
   <si>
+    <t>73</t>
+  </si>
+  <si>
     <t>308</t>
   </si>
   <si>
     <t>116</t>
   </si>
   <si>
+    <t>54</t>
+  </si>
+  <si>
     <t>220</t>
   </si>
   <si>
+    <t>81</t>
+  </si>
+  <si>
     <t>505</t>
   </si>
   <si>
+    <t>92</t>
+  </si>
+  <si>
     <t>H文博系</t>
   </si>
   <si>
@@ -293,12 +473,15 @@
     <t>410</t>
   </si>
   <si>
-    <t>107</t>
+    <t>174</t>
   </si>
   <si>
     <t>514</t>
   </si>
   <si>
+    <t>33</t>
+  </si>
+  <si>
     <t>413</t>
   </si>
   <si>
@@ -314,6 +497,12 @@
     <t>314</t>
   </si>
   <si>
+    <t>113</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
     <t>111</t>
   </si>
   <si>
@@ -323,54 +512,78 @@
     <t>218</t>
   </si>
   <si>
+    <t>173</t>
+  </si>
+  <si>
     <t>212</t>
   </si>
   <si>
+    <t>120</t>
+  </si>
+  <si>
     <t>H材料二楼</t>
   </si>
   <si>
+    <t>88</t>
+  </si>
+  <si>
     <t>215</t>
   </si>
   <si>
+    <t>119</t>
+  </si>
+  <si>
     <t>702</t>
   </si>
   <si>
     <t>411</t>
   </si>
   <si>
+    <t>37</t>
+  </si>
+  <si>
     <t>510</t>
   </si>
   <si>
     <t>H工会南楼</t>
   </si>
   <si>
-    <t>105</t>
-  </si>
-  <si>
     <t>Z实验教学中心</t>
   </si>
   <si>
     <t>H东区艺术教育馆</t>
   </si>
   <si>
+    <t>130</t>
+  </si>
+  <si>
     <t>H光华西主2</t>
   </si>
   <si>
     <t>007</t>
   </si>
   <si>
+    <t>75</t>
+  </si>
+  <si>
     <t>211</t>
   </si>
   <si>
     <t>507</t>
   </si>
   <si>
+    <t>97</t>
+  </si>
+  <si>
     <t>H南区体育中心</t>
   </si>
   <si>
     <t>326</t>
   </si>
   <si>
+    <t>149</t>
+  </si>
+  <si>
     <t>312</t>
   </si>
   <si>
@@ -386,6 +599,12 @@
     <t>601</t>
   </si>
   <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
     <t>216</t>
   </si>
   <si>
@@ -398,18 +617,27 @@
     <t>H先进材料楼</t>
   </si>
   <si>
+    <t>176</t>
+  </si>
+  <si>
     <t>H管院思源楼</t>
   </si>
   <si>
     <t>624</t>
   </si>
   <si>
-    <t>119</t>
+    <t>39</t>
+  </si>
+  <si>
+    <t>135</t>
   </si>
   <si>
     <t>H逸夫科技楼</t>
   </si>
   <si>
+    <t>56</t>
+  </si>
+  <si>
     <t>311</t>
   </si>
   <si>
@@ -419,34 +647,58 @@
     <t>331</t>
   </si>
   <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>157</t>
+  </si>
+  <si>
     <t>227</t>
   </si>
   <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>146</t>
+  </si>
+  <si>
     <t>417</t>
   </si>
   <si>
+    <t>84</t>
+  </si>
+  <si>
     <t>546</t>
   </si>
   <si>
+    <t>152</t>
+  </si>
+  <si>
     <t>425</t>
   </si>
   <si>
+    <t>79</t>
+  </si>
+  <si>
     <t>219</t>
   </si>
   <si>
     <t>607</t>
   </si>
   <si>
+    <t>61</t>
+  </si>
+  <si>
     <t>318</t>
   </si>
   <si>
     <t>H光学</t>
   </si>
   <si>
+    <t>47</t>
+  </si>
+  <si>
     <t>329</t>
-  </si>
-  <si>
-    <t>113</t>
   </si>
   <si>
     <t>416</t>
@@ -521,118 +773,118 @@
       <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="n">
-        <v>109.0</v>
+      <c r="C2" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="n">
-        <v>68.0</v>
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" t="n">
-        <v>85.0</v>
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" t="n">
-        <v>91.0</v>
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" t="n">
-        <v>167.0</v>
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" t="n">
-        <v>48.0</v>
+        <v>19</v>
+      </c>
+      <c r="C7" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" t="n">
-        <v>45.0</v>
+        <v>21</v>
+      </c>
+      <c r="C8" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" t="n">
-        <v>44.0</v>
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" t="n">
-        <v>125.0</v>
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" t="n">
-        <v>85.0</v>
+        <v>27</v>
+      </c>
+      <c r="C11" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" t="n">
-        <v>72.0</v>
+        <v>28</v>
+      </c>
+      <c r="C12" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="13">
@@ -640,65 +892,65 @@
         <v>3</v>
       </c>
       <c r="B13" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" t="n">
-        <v>53.0</v>
+        <v>30</v>
+      </c>
+      <c r="C13" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" t="n">
-        <v>80.0</v>
+        <v>19</v>
+      </c>
+      <c r="C14" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>21</v>
-      </c>
-      <c r="C15" t="n">
-        <v>50.0</v>
+        <v>33</v>
+      </c>
+      <c r="C15" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B16" t="s">
-        <v>22</v>
-      </c>
-      <c r="C16" t="n">
-        <v>106.0</v>
+        <v>35</v>
+      </c>
+      <c r="C16" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
-      </c>
-      <c r="C17" t="n">
-        <v>100.0</v>
+        <v>37</v>
+      </c>
+      <c r="C17" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" t="n">
-        <v>180.0</v>
+        <v>40</v>
+      </c>
+      <c r="C18" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="19">
@@ -706,120 +958,120 @@
         <v>3</v>
       </c>
       <c r="B19" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" t="n">
-        <v>50.0</v>
+        <v>42</v>
+      </c>
+      <c r="C19" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B20" t="s">
-        <v>27</v>
-      </c>
-      <c r="C20" t="n">
-        <v>62.0</v>
+        <v>43</v>
+      </c>
+      <c r="C20" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="B21" t="s">
-        <v>12</v>
-      </c>
-      <c r="C21" t="n">
-        <v>95.0</v>
+        <v>16</v>
+      </c>
+      <c r="C21" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="B22" t="s">
-        <v>30</v>
-      </c>
-      <c r="C22" t="n">
-        <v>30.0</v>
+        <v>48</v>
+      </c>
+      <c r="C22" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="B23" t="s">
-        <v>31</v>
-      </c>
-      <c r="C23" t="n">
-        <v>30.0</v>
+        <v>5</v>
+      </c>
+      <c r="C23" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="B24" t="s">
-        <v>33</v>
-      </c>
-      <c r="C24" t="n">
-        <v>34.0</v>
+        <v>51</v>
+      </c>
+      <c r="C24" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
+        <v>9</v>
+      </c>
+      <c r="B25" t="s">
         <v>7</v>
       </c>
-      <c r="B25" t="s">
-        <v>6</v>
-      </c>
-      <c r="C25" t="n">
-        <v>71.0</v>
+      <c r="C25" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="B26" t="s">
-        <v>35</v>
-      </c>
-      <c r="C26" t="n">
-        <v>1019.0</v>
+        <v>55</v>
+      </c>
+      <c r="C26" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B27" t="s">
-        <v>26</v>
-      </c>
-      <c r="C27" t="n">
-        <v>50.0</v>
+        <v>42</v>
+      </c>
+      <c r="C27" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B28" t="s">
-        <v>36</v>
-      </c>
-      <c r="C28" t="n">
-        <v>50.0</v>
+        <v>57</v>
+      </c>
+      <c r="C28" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="B29" t="s">
-        <v>38</v>
-      </c>
-      <c r="C29" t="n">
-        <v>95.0</v>
+        <v>59</v>
+      </c>
+      <c r="C29" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="30">
@@ -827,351 +1079,351 @@
         <v>3</v>
       </c>
       <c r="B30" t="s">
-        <v>38</v>
-      </c>
-      <c r="C30" t="n">
-        <v>107.0</v>
+        <v>59</v>
+      </c>
+      <c r="C30" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="B31" t="s">
-        <v>40</v>
-      </c>
-      <c r="C31" t="n">
-        <v>60.0</v>
+        <v>62</v>
+      </c>
+      <c r="C31" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B32" t="s">
-        <v>41</v>
-      </c>
-      <c r="C32" t="n">
-        <v>58.0</v>
+        <v>64</v>
+      </c>
+      <c r="C32" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="B33" t="s">
-        <v>43</v>
-      </c>
-      <c r="C33" t="n">
-        <v>71.0</v>
+        <v>67</v>
+      </c>
+      <c r="C33" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="B34" t="s">
-        <v>26</v>
-      </c>
-      <c r="C34" t="n">
-        <v>203.0</v>
+        <v>42</v>
+      </c>
+      <c r="C34" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="B35" t="s">
-        <v>45</v>
-      </c>
-      <c r="C35" t="n">
-        <v>110.0</v>
+        <v>69</v>
+      </c>
+      <c r="C35" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>46</v>
+        <v>71</v>
       </c>
       <c r="B36" t="s">
-        <v>47</v>
-      </c>
-      <c r="C36" t="n">
-        <v>185.0</v>
+        <v>72</v>
+      </c>
+      <c r="C36" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>48</v>
+        <v>74</v>
       </c>
       <c r="B37" t="s">
-        <v>22</v>
-      </c>
-      <c r="C37" t="n">
-        <v>51.0</v>
+        <v>35</v>
+      </c>
+      <c r="C37" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="B38" t="s">
-        <v>49</v>
-      </c>
-      <c r="C38" t="n">
-        <v>21.0</v>
+        <v>76</v>
+      </c>
+      <c r="C38" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B39" t="s">
-        <v>50</v>
-      </c>
-      <c r="C39" t="n">
-        <v>48.0</v>
+        <v>78</v>
+      </c>
+      <c r="C39" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>51</v>
+        <v>79</v>
       </c>
       <c r="B40" t="s">
-        <v>10</v>
-      </c>
-      <c r="C40" t="n">
-        <v>44.0</v>
+        <v>13</v>
+      </c>
+      <c r="C40" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B41" t="s">
-        <v>19</v>
-      </c>
-      <c r="C41" t="n">
-        <v>45.0</v>
+        <v>28</v>
+      </c>
+      <c r="C41" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
-      </c>
-      <c r="C42" t="n">
-        <v>50.0</v>
+        <v>10</v>
+      </c>
+      <c r="C42" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="B43" t="s">
-        <v>36</v>
-      </c>
-      <c r="C43" t="n">
-        <v>65.0</v>
+        <v>57</v>
+      </c>
+      <c r="C43" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>51</v>
+        <v>79</v>
       </c>
       <c r="B44" t="s">
-        <v>27</v>
-      </c>
-      <c r="C44" t="n">
-        <v>90.0</v>
+        <v>43</v>
+      </c>
+      <c r="C44" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="B45" t="s">
-        <v>49</v>
-      </c>
-      <c r="C45" t="n">
-        <v>44.0</v>
+        <v>76</v>
+      </c>
+      <c r="C45" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>14</v>
-      </c>
-      <c r="C46" t="n">
-        <v>102.0</v>
+        <v>19</v>
+      </c>
+      <c r="C46" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>46</v>
+        <v>71</v>
       </c>
       <c r="B47" t="s">
-        <v>25</v>
-      </c>
-      <c r="C47" t="n">
-        <v>185.0</v>
+        <v>40</v>
+      </c>
+      <c r="C47" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B48" t="s">
-        <v>52</v>
-      </c>
-      <c r="C48" t="n">
-        <v>139.0</v>
+        <v>82</v>
+      </c>
+      <c r="C48" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B49" t="s">
-        <v>53</v>
-      </c>
-      <c r="C49" t="n">
-        <v>82.0</v>
+        <v>84</v>
+      </c>
+      <c r="C49" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B50" t="s">
-        <v>26</v>
-      </c>
-      <c r="C50" t="n">
-        <v>94.0</v>
+        <v>42</v>
+      </c>
+      <c r="C50" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>46</v>
+        <v>71</v>
       </c>
       <c r="B51" t="s">
-        <v>12</v>
-      </c>
-      <c r="C51" t="n">
-        <v>52.0</v>
+        <v>16</v>
+      </c>
+      <c r="C51" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="B52" t="s">
-        <v>47</v>
-      </c>
-      <c r="C52" t="n">
-        <v>57.0</v>
+        <v>72</v>
+      </c>
+      <c r="C52" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>54</v>
+        <v>89</v>
       </c>
       <c r="B53" t="s">
-        <v>53</v>
-      </c>
-      <c r="C53" t="n">
-        <v>35.0</v>
+        <v>84</v>
+      </c>
+      <c r="C53" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B54" t="s">
         <v>4</v>
       </c>
-      <c r="C54" t="n">
-        <v>77.0</v>
+      <c r="C54" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B55" t="s">
-        <v>55</v>
-      </c>
-      <c r="C55" t="n">
-        <v>20.0</v>
+        <v>92</v>
+      </c>
+      <c r="C55" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B56" t="s">
-        <v>38</v>
-      </c>
-      <c r="C56" t="n">
-        <v>80.0</v>
+        <v>59</v>
+      </c>
+      <c r="C56" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>51</v>
+        <v>79</v>
       </c>
       <c r="B57" t="s">
-        <v>56</v>
-      </c>
-      <c r="C57" t="n">
-        <v>98.0</v>
+        <v>94</v>
+      </c>
+      <c r="C57" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B58" t="s">
-        <v>14</v>
-      </c>
-      <c r="C58" t="n">
-        <v>55.0</v>
+        <v>19</v>
+      </c>
+      <c r="C58" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B59" t="s">
-        <v>57</v>
-      </c>
-      <c r="C59" t="n">
-        <v>142.0</v>
+        <v>97</v>
+      </c>
+      <c r="C59" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B60" t="s">
-        <v>58</v>
-      </c>
-      <c r="C60" t="n">
-        <v>30.0</v>
+        <v>99</v>
+      </c>
+      <c r="C60" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="B61" t="s">
-        <v>25</v>
-      </c>
-      <c r="C61" t="n">
-        <v>30.0</v>
+        <v>40</v>
+      </c>
+      <c r="C61" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="62">
@@ -1179,109 +1431,109 @@
         <v>3</v>
       </c>
       <c r="B62" t="s">
-        <v>59</v>
-      </c>
-      <c r="C62" t="n">
-        <v>106.0</v>
+        <v>100</v>
+      </c>
+      <c r="C62" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B63" t="s">
-        <v>20</v>
-      </c>
-      <c r="C63" t="n">
-        <v>80.0</v>
+        <v>30</v>
+      </c>
+      <c r="C63" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B64" t="s">
-        <v>16</v>
-      </c>
-      <c r="C64" t="n">
-        <v>49.0</v>
+        <v>23</v>
+      </c>
+      <c r="C64" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="B65" t="s">
-        <v>60</v>
-      </c>
-      <c r="C65" t="n">
-        <v>45.0</v>
+        <v>36</v>
+      </c>
+      <c r="C65" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B66" t="s">
-        <v>61</v>
-      </c>
-      <c r="C66" t="n">
-        <v>32.0</v>
+        <v>102</v>
+      </c>
+      <c r="C66" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="B67" t="s">
-        <v>47</v>
-      </c>
-      <c r="C67" t="n">
-        <v>80.0</v>
+        <v>72</v>
+      </c>
+      <c r="C67" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B68" t="s">
-        <v>52</v>
-      </c>
-      <c r="C68" t="n">
-        <v>60.0</v>
+        <v>82</v>
+      </c>
+      <c r="C68" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B69" t="s">
-        <v>38</v>
-      </c>
-      <c r="C69" t="n">
-        <v>70.0</v>
+        <v>59</v>
+      </c>
+      <c r="C69" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B70" t="s">
-        <v>49</v>
-      </c>
-      <c r="C70" t="n">
-        <v>32.0</v>
+        <v>76</v>
+      </c>
+      <c r="C70" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="B71" t="s">
-        <v>8</v>
-      </c>
-      <c r="C71" t="n">
-        <v>260.0</v>
+        <v>10</v>
+      </c>
+      <c r="C71" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="72">
@@ -1289,76 +1541,76 @@
         <v>3</v>
       </c>
       <c r="B72" t="s">
-        <v>62</v>
-      </c>
-      <c r="C72" t="n">
-        <v>170.0</v>
+        <v>106</v>
+      </c>
+      <c r="C72" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>63</v>
+        <v>108</v>
       </c>
       <c r="B73" t="s">
-        <v>64</v>
-      </c>
-      <c r="C73" t="n">
-        <v>43.0</v>
+        <v>109</v>
+      </c>
+      <c r="C73" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>65</v>
+        <v>111</v>
       </c>
       <c r="B74" t="s">
-        <v>56</v>
-      </c>
-      <c r="C74" t="n">
-        <v>62.0</v>
+        <v>94</v>
+      </c>
+      <c r="C74" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B75" t="s">
-        <v>66</v>
-      </c>
-      <c r="C75" t="n">
-        <v>38.0</v>
+        <v>112</v>
+      </c>
+      <c r="C75" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="B76" t="s">
-        <v>67</v>
-      </c>
-      <c r="C76" t="n">
-        <v>80.0</v>
+        <v>114</v>
+      </c>
+      <c r="C76" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B77" t="s">
         <v>4</v>
       </c>
-      <c r="C77" t="n">
-        <v>85.0</v>
+      <c r="C77" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B78" t="s">
-        <v>21</v>
-      </c>
-      <c r="C78" t="n">
-        <v>40.0</v>
+        <v>33</v>
+      </c>
+      <c r="C78" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="79">
@@ -1366,197 +1618,197 @@
         <v>3</v>
       </c>
       <c r="B79" t="s">
-        <v>17</v>
-      </c>
-      <c r="C79" t="n">
-        <v>110.0</v>
+        <v>25</v>
+      </c>
+      <c r="C79" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="B80" t="s">
-        <v>68</v>
-      </c>
-      <c r="C80" t="n">
-        <v>36.0</v>
+        <v>116</v>
+      </c>
+      <c r="C80" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="B81" t="s">
-        <v>67</v>
-      </c>
-      <c r="C81" t="n">
-        <v>50.0</v>
+        <v>114</v>
+      </c>
+      <c r="C81" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="B82" t="s">
-        <v>69</v>
-      </c>
-      <c r="C82" t="n">
-        <v>55.0</v>
+        <v>118</v>
+      </c>
+      <c r="C82" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B83" t="s">
-        <v>47</v>
-      </c>
-      <c r="C83" t="n">
-        <v>65.0</v>
+        <v>72</v>
+      </c>
+      <c r="C83" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B84" t="s">
-        <v>25</v>
-      </c>
-      <c r="C84" t="n">
-        <v>52.0</v>
+        <v>40</v>
+      </c>
+      <c r="C84" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>51</v>
+        <v>79</v>
       </c>
       <c r="B85" t="s">
-        <v>47</v>
-      </c>
-      <c r="C85" t="n">
-        <v>64.0</v>
+        <v>72</v>
+      </c>
+      <c r="C85" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="B86" t="s">
-        <v>60</v>
-      </c>
-      <c r="C86" t="n">
-        <v>55.0</v>
+        <v>36</v>
+      </c>
+      <c r="C86" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="B87" t="s">
-        <v>53</v>
-      </c>
-      <c r="C87" t="n">
-        <v>59.0</v>
+        <v>84</v>
+      </c>
+      <c r="C87" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B88" t="s">
-        <v>70</v>
-      </c>
-      <c r="C88" t="n">
-        <v>121.0</v>
+        <v>121</v>
+      </c>
+      <c r="C88" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>71</v>
+        <v>123</v>
       </c>
       <c r="B89" t="s">
-        <v>26</v>
-      </c>
-      <c r="C89" t="n">
-        <v>45.0</v>
+        <v>42</v>
+      </c>
+      <c r="C89" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="B90" t="s">
-        <v>35</v>
-      </c>
-      <c r="C90" t="n">
-        <v>76.0</v>
+        <v>55</v>
+      </c>
+      <c r="C90" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="B91" t="s">
-        <v>72</v>
-      </c>
-      <c r="C91" t="n">
-        <v>68.0</v>
+        <v>125</v>
+      </c>
+      <c r="C91" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B92" t="s">
-        <v>52</v>
-      </c>
-      <c r="C92" t="n">
-        <v>52.0</v>
+        <v>82</v>
+      </c>
+      <c r="C92" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>54</v>
+        <v>89</v>
       </c>
       <c r="B93" t="s">
-        <v>45</v>
-      </c>
-      <c r="C93" t="n">
-        <v>45.0</v>
+        <v>69</v>
+      </c>
+      <c r="C93" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="B94" t="s">
-        <v>73</v>
-      </c>
-      <c r="C94" t="n">
-        <v>69.0</v>
+        <v>126</v>
+      </c>
+      <c r="C94" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="B95" t="s">
-        <v>62</v>
-      </c>
-      <c r="C95" t="n">
-        <v>112.0</v>
+        <v>106</v>
+      </c>
+      <c r="C95" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>74</v>
+        <v>128</v>
       </c>
       <c r="B96" t="s">
-        <v>47</v>
-      </c>
-      <c r="C96" t="n">
-        <v>50.0</v>
+        <v>72</v>
+      </c>
+      <c r="C96" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="97">
@@ -1564,340 +1816,340 @@
         <v>3</v>
       </c>
       <c r="B97" t="s">
-        <v>75</v>
-      </c>
-      <c r="C97" t="n">
-        <v>105.0</v>
+        <v>129</v>
+      </c>
+      <c r="C97" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B98" t="s">
-        <v>76</v>
-      </c>
-      <c r="C98" t="n">
-        <v>85.0</v>
+        <v>131</v>
+      </c>
+      <c r="C98" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B99" t="s">
-        <v>77</v>
-      </c>
-      <c r="C99" t="n">
-        <v>40.0</v>
+        <v>132</v>
+      </c>
+      <c r="C99" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="B100" t="s">
-        <v>78</v>
-      </c>
-      <c r="C100" t="n">
-        <v>60.0</v>
+        <v>133</v>
+      </c>
+      <c r="C100" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B101" t="s">
-        <v>79</v>
-      </c>
-      <c r="C101" t="n">
-        <v>46.0</v>
+        <v>134</v>
+      </c>
+      <c r="C101" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>48</v>
+        <v>74</v>
       </c>
       <c r="B102" t="s">
-        <v>60</v>
-      </c>
-      <c r="C102" t="n">
-        <v>52.0</v>
+        <v>36</v>
+      </c>
+      <c r="C102" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="B103" t="s">
-        <v>80</v>
-      </c>
-      <c r="C103" t="n">
-        <v>30.0</v>
+        <v>136</v>
+      </c>
+      <c r="C103" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B104" t="s">
-        <v>81</v>
-      </c>
-      <c r="C104" t="n">
-        <v>138.0</v>
+        <v>137</v>
+      </c>
+      <c r="C104" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B105" t="s">
-        <v>82</v>
-      </c>
-      <c r="C105" t="n">
-        <v>52.0</v>
+        <v>70</v>
+      </c>
+      <c r="C105" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="B106" t="s">
-        <v>17</v>
-      </c>
-      <c r="C106" t="n">
-        <v>45.0</v>
+        <v>25</v>
+      </c>
+      <c r="C106" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="B107" t="s">
-        <v>55</v>
-      </c>
-      <c r="C107" t="n">
-        <v>65.0</v>
+        <v>92</v>
+      </c>
+      <c r="C107" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B108" t="s">
-        <v>83</v>
-      </c>
-      <c r="C108" t="n">
-        <v>55.0</v>
+        <v>139</v>
+      </c>
+      <c r="C108" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B109" t="s">
-        <v>84</v>
-      </c>
-      <c r="C109" t="n">
-        <v>35.0</v>
+        <v>140</v>
+      </c>
+      <c r="C109" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>85</v>
+        <v>141</v>
       </c>
       <c r="B110" t="s">
-        <v>53</v>
-      </c>
-      <c r="C110" t="n">
-        <v>70.0</v>
+        <v>84</v>
+      </c>
+      <c r="C110" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B111" t="s">
-        <v>12</v>
-      </c>
-      <c r="C111" t="n">
-        <v>73.0</v>
+        <v>16</v>
+      </c>
+      <c r="C111" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="B112" t="s">
         <v>4</v>
       </c>
-      <c r="C112" t="n">
-        <v>64.0</v>
+      <c r="C112" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B113" t="s">
-        <v>86</v>
-      </c>
-      <c r="C113" t="n">
-        <v>50.0</v>
+        <v>143</v>
+      </c>
+      <c r="C113" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B114" t="s">
-        <v>87</v>
-      </c>
-      <c r="C114" t="n">
-        <v>54.0</v>
+        <v>144</v>
+      </c>
+      <c r="C114" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B115" t="s">
-        <v>88</v>
-      </c>
-      <c r="C115" t="n">
-        <v>81.0</v>
+        <v>146</v>
+      </c>
+      <c r="C115" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B116" t="s">
-        <v>89</v>
-      </c>
-      <c r="C116" t="n">
-        <v>92.0</v>
+        <v>148</v>
+      </c>
+      <c r="C116" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>90</v>
+        <v>150</v>
       </c>
       <c r="B117" t="s">
-        <v>66</v>
-      </c>
-      <c r="C117" t="n">
-        <v>55.0</v>
+        <v>112</v>
+      </c>
+      <c r="C117" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B118" t="s">
-        <v>40</v>
-      </c>
-      <c r="C118" t="n">
-        <v>35.0</v>
+        <v>62</v>
+      </c>
+      <c r="C118" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>91</v>
+        <v>151</v>
       </c>
       <c r="B119" t="s">
-        <v>38</v>
-      </c>
-      <c r="C119" t="n">
-        <v>40.0</v>
+        <v>59</v>
+      </c>
+      <c r="C119" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B120" t="s">
-        <v>6</v>
-      </c>
-      <c r="C120" t="n">
-        <v>81.0</v>
+        <v>7</v>
+      </c>
+      <c r="C120" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B121" t="s">
-        <v>92</v>
-      </c>
-      <c r="C121" t="n">
-        <v>50.0</v>
+        <v>152</v>
+      </c>
+      <c r="C121" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="B122" t="s">
-        <v>86</v>
-      </c>
-      <c r="C122" t="n">
-        <v>174.0</v>
+        <v>143</v>
+      </c>
+      <c r="C122" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B123" t="s">
-        <v>93</v>
-      </c>
-      <c r="C123" t="n">
-        <v>52.0</v>
+        <v>60</v>
+      </c>
+      <c r="C123" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="B124" t="s">
-        <v>94</v>
-      </c>
-      <c r="C124" t="n">
-        <v>33.0</v>
+        <v>154</v>
+      </c>
+      <c r="C124" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="B125" t="s">
-        <v>12</v>
-      </c>
-      <c r="C125" t="n">
-        <v>110.0</v>
+        <v>16</v>
+      </c>
+      <c r="C125" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B126" t="s">
-        <v>56</v>
-      </c>
-      <c r="C126" t="n">
-        <v>60.0</v>
+        <v>94</v>
+      </c>
+      <c r="C126" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B127" t="s">
-        <v>79</v>
-      </c>
-      <c r="C127" t="n">
-        <v>80.0</v>
+        <v>134</v>
+      </c>
+      <c r="C127" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="128">
@@ -1905,241 +2157,241 @@
         <v>3</v>
       </c>
       <c r="B128" t="s">
-        <v>45</v>
-      </c>
-      <c r="C128" t="n">
-        <v>91.0</v>
+        <v>69</v>
+      </c>
+      <c r="C128" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="B129" t="s">
-        <v>95</v>
-      </c>
-      <c r="C129" t="n">
-        <v>55.0</v>
+        <v>156</v>
+      </c>
+      <c r="C129" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B130" t="s">
-        <v>36</v>
-      </c>
-      <c r="C130" t="n">
-        <v>51.0</v>
+        <v>57</v>
+      </c>
+      <c r="C130" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="B131" t="s">
-        <v>10</v>
-      </c>
-      <c r="C131" t="n">
-        <v>50.0</v>
+        <v>13</v>
+      </c>
+      <c r="C131" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>51</v>
+        <v>79</v>
       </c>
       <c r="B132" t="s">
-        <v>53</v>
-      </c>
-      <c r="C132" t="n">
-        <v>76.0</v>
+        <v>84</v>
+      </c>
+      <c r="C132" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B133" t="s">
-        <v>96</v>
-      </c>
-      <c r="C133" t="n">
-        <v>32.0</v>
+        <v>157</v>
+      </c>
+      <c r="C133" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>97</v>
+        <v>158</v>
       </c>
       <c r="B134" t="s">
-        <v>82</v>
-      </c>
-      <c r="C134" t="n">
-        <v>90.0</v>
+        <v>70</v>
+      </c>
+      <c r="C134" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="B135" t="s">
-        <v>98</v>
-      </c>
-      <c r="C135" t="n">
-        <v>80.0</v>
+        <v>159</v>
+      </c>
+      <c r="C135" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B136" t="s">
-        <v>45</v>
-      </c>
-      <c r="C136" t="n">
-        <v>50.0</v>
+        <v>69</v>
+      </c>
+      <c r="C136" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>46</v>
+        <v>71</v>
       </c>
       <c r="B137" t="s">
-        <v>38</v>
-      </c>
-      <c r="C137" t="n">
-        <v>52.0</v>
+        <v>59</v>
+      </c>
+      <c r="C137" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="B138" t="s">
-        <v>89</v>
-      </c>
-      <c r="C138" t="n">
-        <v>45.0</v>
+        <v>148</v>
+      </c>
+      <c r="C138" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B139" t="s">
-        <v>35</v>
-      </c>
-      <c r="C139" t="n">
-        <v>20.0</v>
+        <v>55</v>
+      </c>
+      <c r="C139" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B140" t="s">
-        <v>99</v>
-      </c>
-      <c r="C140" t="n">
-        <v>44.0</v>
+        <v>160</v>
+      </c>
+      <c r="C140" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B141" t="s">
-        <v>86</v>
-      </c>
-      <c r="C141" t="n">
-        <v>113.0</v>
+        <v>143</v>
+      </c>
+      <c r="C141" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="B142" t="s">
-        <v>75</v>
-      </c>
-      <c r="C142" t="n">
-        <v>63.0</v>
+        <v>129</v>
+      </c>
+      <c r="C142" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B143" t="s">
-        <v>62</v>
-      </c>
-      <c r="C143" t="n">
-        <v>60.0</v>
+        <v>106</v>
+      </c>
+      <c r="C143" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="B144" t="s">
-        <v>27</v>
-      </c>
-      <c r="C144" t="n">
-        <v>32.0</v>
+        <v>43</v>
+      </c>
+      <c r="C144" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="s">
+        <v>71</v>
+      </c>
+      <c r="B145" t="s">
+        <v>30</v>
+      </c>
+      <c r="C145" t="s">
         <v>46</v>
-      </c>
-      <c r="B145" t="s">
-        <v>20</v>
-      </c>
-      <c r="C145" t="n">
-        <v>95.0</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="s">
+        <v>150</v>
+      </c>
+      <c r="B146" t="s">
+        <v>37</v>
+      </c>
+      <c r="C146" t="s">
         <v>90</v>
-      </c>
-      <c r="B146" t="s">
-        <v>23</v>
-      </c>
-      <c r="C146" t="n">
-        <v>35.0</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="B147" t="s">
-        <v>52</v>
-      </c>
-      <c r="C147" t="n">
-        <v>50.0</v>
+        <v>82</v>
+      </c>
+      <c r="C147" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B148" t="s">
-        <v>100</v>
-      </c>
-      <c r="C148" t="n">
-        <v>57.0</v>
+        <v>163</v>
+      </c>
+      <c r="C148" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B149" t="s">
-        <v>8</v>
-      </c>
-      <c r="C149" t="n">
-        <v>45.0</v>
+        <v>10</v>
+      </c>
+      <c r="C149" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="150">
@@ -2147,87 +2399,87 @@
         <v>3</v>
       </c>
       <c r="B150" t="s">
-        <v>14</v>
-      </c>
-      <c r="C150" t="n">
-        <v>104.0</v>
+        <v>19</v>
+      </c>
+      <c r="C150" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B151" t="s">
-        <v>56</v>
-      </c>
-      <c r="C151" t="n">
-        <v>60.0</v>
+        <v>94</v>
+      </c>
+      <c r="C151" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="B152" t="s">
-        <v>101</v>
-      </c>
-      <c r="C152" t="n">
-        <v>65.0</v>
+        <v>164</v>
+      </c>
+      <c r="C152" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="B153" t="s">
-        <v>52</v>
-      </c>
-      <c r="C153" t="n">
-        <v>80.0</v>
+        <v>82</v>
+      </c>
+      <c r="C153" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B154" t="s">
-        <v>102</v>
-      </c>
-      <c r="C154" t="n">
-        <v>58.0</v>
+        <v>165</v>
+      </c>
+      <c r="C154" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B155" t="s">
-        <v>23</v>
-      </c>
-      <c r="C155" t="n">
-        <v>50.0</v>
+        <v>37</v>
+      </c>
+      <c r="C155" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B156" t="s">
-        <v>22</v>
-      </c>
-      <c r="C156" t="n">
-        <v>55.0</v>
+        <v>35</v>
+      </c>
+      <c r="C156" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B157" t="s">
-        <v>40</v>
-      </c>
-      <c r="C157" t="n">
-        <v>90.0</v>
+        <v>62</v>
+      </c>
+      <c r="C157" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="158">
@@ -2235,43 +2487,43 @@
         <v>3</v>
       </c>
       <c r="B158" t="s">
-        <v>6</v>
-      </c>
-      <c r="C158" t="n">
-        <v>50.0</v>
+        <v>7</v>
+      </c>
+      <c r="C158" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="B159" t="s">
-        <v>76</v>
-      </c>
-      <c r="C159" t="n">
-        <v>173.0</v>
+        <v>131</v>
+      </c>
+      <c r="C159" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B160" t="s">
-        <v>103</v>
-      </c>
-      <c r="C160" t="n">
-        <v>120.0</v>
+        <v>167</v>
+      </c>
+      <c r="C160" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B161" t="s">
-        <v>62</v>
-      </c>
-      <c r="C161" t="n">
-        <v>80.0</v>
+        <v>106</v>
+      </c>
+      <c r="C161" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="162">
@@ -2279,43 +2531,43 @@
         <v>3</v>
       </c>
       <c r="B162" t="s">
-        <v>12</v>
-      </c>
-      <c r="C162" t="n">
-        <v>110.0</v>
+        <v>16</v>
+      </c>
+      <c r="C162" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="B163" t="s">
-        <v>56</v>
-      </c>
-      <c r="C163" t="n">
-        <v>80.0</v>
+        <v>94</v>
+      </c>
+      <c r="C163" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>104</v>
+        <v>169</v>
       </c>
       <c r="B164" t="s">
-        <v>67</v>
-      </c>
-      <c r="C164" t="n">
-        <v>46.0</v>
+        <v>114</v>
+      </c>
+      <c r="C164" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B165" t="s">
-        <v>73</v>
-      </c>
-      <c r="C165" t="n">
-        <v>88.0</v>
+        <v>126</v>
+      </c>
+      <c r="C165" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="166">
@@ -2323,285 +2575,285 @@
         <v>3</v>
       </c>
       <c r="B166" t="s">
-        <v>105</v>
-      </c>
-      <c r="C166" t="n">
-        <v>119.0</v>
+        <v>171</v>
+      </c>
+      <c r="C166" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B167" t="s">
-        <v>106</v>
-      </c>
-      <c r="C167" t="n">
-        <v>45.0</v>
+        <v>173</v>
+      </c>
+      <c r="C167" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B168" t="s">
-        <v>107</v>
-      </c>
-      <c r="C168" t="n">
-        <v>37.0</v>
+        <v>174</v>
+      </c>
+      <c r="C168" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="B169" t="s">
-        <v>27</v>
-      </c>
-      <c r="C169" t="n">
-        <v>30.0</v>
+        <v>43</v>
+      </c>
+      <c r="C169" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="B170" t="s">
-        <v>108</v>
-      </c>
-      <c r="C170" t="n">
-        <v>65.0</v>
+        <v>176</v>
+      </c>
+      <c r="C170" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B171" t="s">
-        <v>60</v>
-      </c>
-      <c r="C171" t="n">
-        <v>51.0</v>
+        <v>36</v>
+      </c>
+      <c r="C171" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B172" t="s">
-        <v>98</v>
-      </c>
-      <c r="C172" t="n">
-        <v>34.0</v>
+        <v>159</v>
+      </c>
+      <c r="C172" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B173" t="s">
-        <v>53</v>
-      </c>
-      <c r="C173" t="n">
-        <v>50.0</v>
+        <v>84</v>
+      </c>
+      <c r="C173" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>109</v>
+        <v>177</v>
       </c>
       <c r="B174" t="s">
-        <v>57</v>
-      </c>
-      <c r="C174" t="n">
-        <v>80.0</v>
+        <v>97</v>
+      </c>
+      <c r="C174" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B175" t="s">
-        <v>83</v>
-      </c>
-      <c r="C175" t="n">
-        <v>80.0</v>
+        <v>139</v>
+      </c>
+      <c r="C175" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B176" t="s">
-        <v>41</v>
-      </c>
-      <c r="C176" t="n">
-        <v>37.0</v>
+        <v>64</v>
+      </c>
+      <c r="C176" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="B177" t="s">
-        <v>92</v>
-      </c>
-      <c r="C177" t="n">
-        <v>30.0</v>
+        <v>152</v>
+      </c>
+      <c r="C177" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B178" t="s">
-        <v>57</v>
-      </c>
-      <c r="C178" t="n">
-        <v>40.0</v>
+        <v>97</v>
+      </c>
+      <c r="C178" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>48</v>
+        <v>74</v>
       </c>
       <c r="B179" t="s">
-        <v>77</v>
-      </c>
-      <c r="C179" t="n">
-        <v>40.0</v>
+        <v>132</v>
+      </c>
+      <c r="C179" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="B180" t="s">
-        <v>110</v>
-      </c>
-      <c r="C180" t="n">
-        <v>53.0</v>
+        <v>130</v>
+      </c>
+      <c r="C180" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>111</v>
+        <v>178</v>
       </c>
       <c r="B181" t="s">
-        <v>36</v>
-      </c>
-      <c r="C181" t="n">
-        <v>60.0</v>
+        <v>57</v>
+      </c>
+      <c r="C181" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="s">
-        <v>112</v>
+        <v>179</v>
       </c>
       <c r="B182" t="s">
-        <v>84</v>
-      </c>
-      <c r="C182" t="n">
-        <v>36.0</v>
+        <v>140</v>
+      </c>
+      <c r="C182" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="B183" t="s">
-        <v>60</v>
-      </c>
-      <c r="C183" t="n">
-        <v>130.0</v>
+        <v>36</v>
+      </c>
+      <c r="C183" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="s">
-        <v>113</v>
+        <v>181</v>
       </c>
       <c r="B184" t="s">
-        <v>114</v>
-      </c>
-      <c r="C184" t="n">
-        <v>30.0</v>
+        <v>182</v>
+      </c>
+      <c r="C184" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="B185" t="s">
-        <v>17</v>
-      </c>
-      <c r="C185" t="n">
-        <v>60.0</v>
+        <v>25</v>
+      </c>
+      <c r="C185" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B186" t="s">
-        <v>35</v>
-      </c>
-      <c r="C186" t="n">
-        <v>40.0</v>
+        <v>55</v>
+      </c>
+      <c r="C186" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B187" t="s">
-        <v>53</v>
-      </c>
-      <c r="C187" t="n">
-        <v>75.0</v>
+        <v>84</v>
+      </c>
+      <c r="C187" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B188" t="s">
-        <v>115</v>
-      </c>
-      <c r="C188" t="n">
-        <v>54.0</v>
+        <v>184</v>
+      </c>
+      <c r="C188" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B189" t="s">
-        <v>105</v>
-      </c>
-      <c r="C189" t="n">
-        <v>40.0</v>
+        <v>171</v>
+      </c>
+      <c r="C189" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="B190" t="s">
-        <v>116</v>
-      </c>
-      <c r="C190" t="n">
-        <v>65.0</v>
+        <v>185</v>
+      </c>
+      <c r="C190" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B191" t="s">
-        <v>108</v>
-      </c>
-      <c r="C191" t="n">
-        <v>88.0</v>
+        <v>176</v>
+      </c>
+      <c r="C191" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="192">
@@ -2609,87 +2861,87 @@
         <v>3</v>
       </c>
       <c r="B192" t="s">
-        <v>57</v>
-      </c>
-      <c r="C192" t="n">
-        <v>106.0</v>
+        <v>97</v>
+      </c>
+      <c r="C192" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B193" t="s">
-        <v>93</v>
-      </c>
-      <c r="C193" t="n">
-        <v>60.0</v>
+        <v>60</v>
+      </c>
+      <c r="C193" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B194" t="s">
-        <v>49</v>
-      </c>
-      <c r="C194" t="n">
-        <v>97.0</v>
+        <v>76</v>
+      </c>
+      <c r="C194" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="s">
-        <v>117</v>
+        <v>187</v>
       </c>
       <c r="B195" t="s">
-        <v>52</v>
-      </c>
-      <c r="C195" t="n">
-        <v>44.0</v>
+        <v>82</v>
+      </c>
+      <c r="C195" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="s">
+        <v>18</v>
+      </c>
+      <c r="B196" t="s">
         <v>13</v>
       </c>
-      <c r="B196" t="s">
-        <v>10</v>
-      </c>
-      <c r="C196" t="n">
-        <v>120.0</v>
+      <c r="C196" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B197" t="s">
-        <v>116</v>
-      </c>
-      <c r="C197" t="n">
-        <v>95.0</v>
+        <v>185</v>
+      </c>
+      <c r="C197" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B198" t="s">
-        <v>27</v>
-      </c>
-      <c r="C198" t="n">
-        <v>20.0</v>
+        <v>43</v>
+      </c>
+      <c r="C198" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="s">
-        <v>48</v>
+        <v>74</v>
       </c>
       <c r="B199" t="s">
-        <v>118</v>
-      </c>
-      <c r="C199" t="n">
-        <v>68.0</v>
+        <v>188</v>
+      </c>
+      <c r="C199" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="200">
@@ -2697,32 +2949,32 @@
         <v>3</v>
       </c>
       <c r="B200" t="s">
-        <v>60</v>
-      </c>
-      <c r="C200" t="n">
-        <v>120.0</v>
+        <v>36</v>
+      </c>
+      <c r="C200" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B201" t="s">
-        <v>82</v>
-      </c>
-      <c r="C201" t="n">
-        <v>45.0</v>
+        <v>70</v>
+      </c>
+      <c r="C201" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B202" t="s">
-        <v>57</v>
-      </c>
-      <c r="C202" t="n">
-        <v>80.0</v>
+        <v>97</v>
+      </c>
+      <c r="C202" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="203">
@@ -2730,197 +2982,197 @@
         <v>3</v>
       </c>
       <c r="B203" t="s">
-        <v>89</v>
-      </c>
-      <c r="C203" t="n">
-        <v>91.0</v>
+        <v>148</v>
+      </c>
+      <c r="C203" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B204" t="s">
-        <v>98</v>
-      </c>
-      <c r="C204" t="n">
-        <v>75.0</v>
+        <v>159</v>
+      </c>
+      <c r="C204" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B205" t="s">
-        <v>14</v>
-      </c>
-      <c r="C205" t="n">
-        <v>220.0</v>
+        <v>19</v>
+      </c>
+      <c r="C205" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="B206" t="s">
-        <v>36</v>
-      </c>
-      <c r="C206" t="n">
-        <v>50.0</v>
+        <v>57</v>
+      </c>
+      <c r="C206" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="B207" t="s">
-        <v>14</v>
-      </c>
-      <c r="C207" t="n">
-        <v>45.0</v>
+        <v>19</v>
+      </c>
+      <c r="C207" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="B208" t="s">
-        <v>56</v>
-      </c>
-      <c r="C208" t="n">
-        <v>149.0</v>
+        <v>94</v>
+      </c>
+      <c r="C208" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B209" t="s">
-        <v>89</v>
-      </c>
-      <c r="C209" t="n">
-        <v>55.0</v>
+        <v>148</v>
+      </c>
+      <c r="C209" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B210" t="s">
-        <v>76</v>
-      </c>
-      <c r="C210" t="n">
-        <v>40.0</v>
+        <v>131</v>
+      </c>
+      <c r="C210" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B211" t="s">
-        <v>92</v>
-      </c>
-      <c r="C211" t="n">
-        <v>32.0</v>
+        <v>152</v>
+      </c>
+      <c r="C211" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="B212" t="s">
-        <v>57</v>
-      </c>
-      <c r="C212" t="n">
-        <v>50.0</v>
+        <v>97</v>
+      </c>
+      <c r="C212" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="B213" t="s">
-        <v>45</v>
-      </c>
-      <c r="C213" t="n">
-        <v>88.0</v>
+        <v>69</v>
+      </c>
+      <c r="C213" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B214" t="s">
-        <v>119</v>
-      </c>
-      <c r="C214" t="n">
-        <v>45.0</v>
+        <v>190</v>
+      </c>
+      <c r="C214" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B215" t="s">
-        <v>10</v>
-      </c>
-      <c r="C215" t="n">
-        <v>85.0</v>
+        <v>13</v>
+      </c>
+      <c r="C215" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B216" t="s">
-        <v>81</v>
-      </c>
-      <c r="C216" t="n">
-        <v>34.0</v>
+        <v>137</v>
+      </c>
+      <c r="C216" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="s">
-        <v>120</v>
+        <v>191</v>
       </c>
       <c r="B217" t="s">
-        <v>121</v>
-      </c>
-      <c r="C217" t="n">
-        <v>30.0</v>
+        <v>192</v>
+      </c>
+      <c r="C217" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="B218" t="s">
-        <v>122</v>
-      </c>
-      <c r="C218" t="n">
-        <v>60.0</v>
+        <v>193</v>
+      </c>
+      <c r="C218" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="s">
-        <v>46</v>
+        <v>71</v>
       </c>
       <c r="B219" t="s">
-        <v>36</v>
-      </c>
-      <c r="C219" t="n">
-        <v>72.0</v>
+        <v>57</v>
+      </c>
+      <c r="C219" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="B220" t="s">
-        <v>107</v>
-      </c>
-      <c r="C220" t="n">
-        <v>55.0</v>
+        <v>174</v>
+      </c>
+      <c r="C220" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="221">
@@ -2928,109 +3180,109 @@
         <v>3</v>
       </c>
       <c r="B221" t="s">
-        <v>82</v>
-      </c>
-      <c r="C221" t="n">
-        <v>95.0</v>
+        <v>70</v>
+      </c>
+      <c r="C221" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B222" t="s">
-        <v>98</v>
-      </c>
-      <c r="C222" t="n">
-        <v>95.0</v>
+        <v>159</v>
+      </c>
+      <c r="C222" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="B223" t="s">
-        <v>123</v>
-      </c>
-      <c r="C223" t="n">
-        <v>40.0</v>
+        <v>194</v>
+      </c>
+      <c r="C223" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="s">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="B224" t="s">
-        <v>10</v>
-      </c>
-      <c r="C224" t="n">
-        <v>32.0</v>
+        <v>13</v>
+      </c>
+      <c r="C224" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B225" t="s">
-        <v>84</v>
-      </c>
-      <c r="C225" t="n">
-        <v>41.0</v>
+        <v>140</v>
+      </c>
+      <c r="C225" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="B226" t="s">
-        <v>23</v>
-      </c>
-      <c r="C226" t="n">
-        <v>70.0</v>
+        <v>37</v>
+      </c>
+      <c r="C226" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="B227" t="s">
-        <v>8</v>
-      </c>
-      <c r="C227" t="n">
-        <v>31.0</v>
+        <v>10</v>
+      </c>
+      <c r="C227" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="B228" t="s">
-        <v>62</v>
-      </c>
-      <c r="C228" t="n">
-        <v>180.0</v>
+        <v>106</v>
+      </c>
+      <c r="C228" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="B229" t="s">
-        <v>60</v>
-      </c>
-      <c r="C229" t="n">
-        <v>112.0</v>
+        <v>36</v>
+      </c>
+      <c r="C229" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B230" t="s">
-        <v>103</v>
-      </c>
-      <c r="C230" t="n">
-        <v>58.0</v>
+        <v>167</v>
+      </c>
+      <c r="C230" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="231">
@@ -3038,109 +3290,109 @@
         <v>3</v>
       </c>
       <c r="B231" t="s">
-        <v>25</v>
-      </c>
-      <c r="C231" t="n">
-        <v>106.0</v>
+        <v>40</v>
+      </c>
+      <c r="C231" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B232" t="s">
-        <v>124</v>
-      </c>
-      <c r="C232" t="n">
-        <v>50.0</v>
+        <v>197</v>
+      </c>
+      <c r="C232" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="B233" t="s">
-        <v>73</v>
-      </c>
-      <c r="C233" t="n">
-        <v>60.0</v>
+        <v>126</v>
+      </c>
+      <c r="C233" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="s">
-        <v>125</v>
+        <v>198</v>
       </c>
       <c r="B234" t="s">
-        <v>20</v>
-      </c>
-      <c r="C234" t="n">
-        <v>30.0</v>
+        <v>30</v>
+      </c>
+      <c r="C234" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B235" t="s">
-        <v>126</v>
-      </c>
-      <c r="C235" t="n">
-        <v>43.0</v>
+        <v>199</v>
+      </c>
+      <c r="C235" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B236" t="s">
-        <v>76</v>
-      </c>
-      <c r="C236" t="n">
-        <v>50.0</v>
+        <v>131</v>
+      </c>
+      <c r="C236" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B237" t="s">
-        <v>126</v>
-      </c>
-      <c r="C237" t="n">
-        <v>82.0</v>
+        <v>199</v>
+      </c>
+      <c r="C237" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B238" t="s">
-        <v>10</v>
-      </c>
-      <c r="C238" t="n">
-        <v>73.0</v>
+        <v>13</v>
+      </c>
+      <c r="C238" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="B239" t="s">
-        <v>25</v>
-      </c>
-      <c r="C239" t="n">
-        <v>50.0</v>
+        <v>40</v>
+      </c>
+      <c r="C239" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B240" t="s">
-        <v>73</v>
-      </c>
-      <c r="C240" t="n">
-        <v>106.0</v>
+        <v>126</v>
+      </c>
+      <c r="C240" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="241">
@@ -3148,43 +3400,43 @@
         <v>3</v>
       </c>
       <c r="B241" t="s">
-        <v>56</v>
-      </c>
-      <c r="C241" t="n">
-        <v>60.0</v>
+        <v>94</v>
+      </c>
+      <c r="C241" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="s">
-        <v>127</v>
+        <v>200</v>
       </c>
       <c r="B242" t="s">
-        <v>89</v>
-      </c>
-      <c r="C242" t="n">
-        <v>38.0</v>
+        <v>148</v>
+      </c>
+      <c r="C242" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B243" t="s">
-        <v>119</v>
-      </c>
-      <c r="C243" t="n">
-        <v>176.0</v>
+        <v>190</v>
+      </c>
+      <c r="C243" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="s">
-        <v>128</v>
+        <v>202</v>
       </c>
       <c r="B244" t="s">
-        <v>129</v>
-      </c>
-      <c r="C244" t="n">
-        <v>39.0</v>
+        <v>203</v>
+      </c>
+      <c r="C244" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="245">
@@ -3192,43 +3444,43 @@
         <v>3</v>
       </c>
       <c r="B245" t="s">
-        <v>84</v>
-      </c>
-      <c r="C245" t="n">
-        <v>119.0</v>
+        <v>140</v>
+      </c>
+      <c r="C245" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="s">
-        <v>48</v>
+        <v>74</v>
       </c>
       <c r="B246" t="s">
-        <v>130</v>
-      </c>
-      <c r="C246" t="n">
-        <v>102.0</v>
+        <v>172</v>
+      </c>
+      <c r="C246" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B247" t="s">
-        <v>27</v>
-      </c>
-      <c r="C247" t="n">
-        <v>85.0</v>
+        <v>43</v>
+      </c>
+      <c r="C247" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B248" t="s">
-        <v>81</v>
-      </c>
-      <c r="C248" t="n">
-        <v>58.0</v>
+        <v>137</v>
+      </c>
+      <c r="C248" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="249">
@@ -3236,208 +3488,208 @@
         <v>3</v>
       </c>
       <c r="B249" t="s">
-        <v>40</v>
-      </c>
-      <c r="C249" t="n">
-        <v>91.0</v>
+        <v>62</v>
+      </c>
+      <c r="C249" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B250" t="s">
-        <v>49</v>
-      </c>
-      <c r="C250" t="n">
-        <v>45.0</v>
+        <v>76</v>
+      </c>
+      <c r="C250" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="B251" t="s">
-        <v>82</v>
-      </c>
-      <c r="C251" t="n">
-        <v>30.0</v>
+        <v>70</v>
+      </c>
+      <c r="C251" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="B252" t="s">
-        <v>6</v>
-      </c>
-      <c r="C252" t="n">
-        <v>95.0</v>
+        <v>7</v>
+      </c>
+      <c r="C252" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B253" t="s">
-        <v>110</v>
-      </c>
-      <c r="C253" t="n">
-        <v>80.0</v>
+        <v>130</v>
+      </c>
+      <c r="C253" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B254" t="s">
-        <v>17</v>
-      </c>
-      <c r="C254" t="n">
-        <v>51.0</v>
+        <v>25</v>
+      </c>
+      <c r="C254" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="s">
-        <v>51</v>
+        <v>79</v>
       </c>
       <c r="B255" t="s">
-        <v>62</v>
-      </c>
-      <c r="C255" t="n">
-        <v>90.0</v>
+        <v>106</v>
+      </c>
+      <c r="C255" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B256" t="s">
-        <v>16</v>
-      </c>
-      <c r="C256" t="n">
-        <v>135.0</v>
+        <v>23</v>
+      </c>
+      <c r="C256" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="s">
-        <v>131</v>
+        <v>206</v>
       </c>
       <c r="B257" t="s">
-        <v>56</v>
-      </c>
-      <c r="C257" t="n">
-        <v>44.0</v>
+        <v>94</v>
+      </c>
+      <c r="C257" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B258" t="s">
-        <v>62</v>
-      </c>
-      <c r="C258" t="n">
-        <v>110.0</v>
+        <v>106</v>
+      </c>
+      <c r="C258" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="B259" t="s">
-        <v>36</v>
-      </c>
-      <c r="C259" t="n">
-        <v>33.0</v>
+        <v>57</v>
+      </c>
+      <c r="C259" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B260" t="s">
-        <v>101</v>
-      </c>
-      <c r="C260" t="n">
-        <v>56.0</v>
+        <v>164</v>
+      </c>
+      <c r="C260" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B261" t="s">
-        <v>86</v>
-      </c>
-      <c r="C261" t="n">
-        <v>48.0</v>
+        <v>143</v>
+      </c>
+      <c r="C261" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B262" t="s">
-        <v>8</v>
-      </c>
-      <c r="C262" t="n">
-        <v>20.0</v>
+        <v>10</v>
+      </c>
+      <c r="C262" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="s">
-        <v>111</v>
+        <v>178</v>
       </c>
       <c r="B263" t="s">
-        <v>38</v>
-      </c>
-      <c r="C263" t="n">
-        <v>95.0</v>
+        <v>59</v>
+      </c>
+      <c r="C263" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B264" t="s">
-        <v>59</v>
-      </c>
-      <c r="C264" t="n">
-        <v>75.0</v>
+        <v>100</v>
+      </c>
+      <c r="C264" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B265" t="s">
-        <v>132</v>
-      </c>
-      <c r="C265" t="n">
-        <v>34.0</v>
+        <v>208</v>
+      </c>
+      <c r="C265" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B266" t="s">
-        <v>56</v>
-      </c>
-      <c r="C266" t="n">
-        <v>32.0</v>
+        <v>94</v>
+      </c>
+      <c r="C266" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="B267" t="s">
-        <v>133</v>
-      </c>
-      <c r="C267" t="n">
-        <v>30.0</v>
+        <v>209</v>
+      </c>
+      <c r="C267" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="268">
@@ -3445,230 +3697,230 @@
         <v>3</v>
       </c>
       <c r="B268" t="s">
-        <v>47</v>
-      </c>
-      <c r="C268" t="n">
-        <v>105.0</v>
+        <v>72</v>
+      </c>
+      <c r="C268" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B269" t="s">
-        <v>21</v>
-      </c>
-      <c r="C269" t="n">
-        <v>85.0</v>
+        <v>33</v>
+      </c>
+      <c r="C269" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B270" t="s">
-        <v>75</v>
-      </c>
-      <c r="C270" t="n">
-        <v>37.0</v>
+        <v>129</v>
+      </c>
+      <c r="C270" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="s">
-        <v>48</v>
+        <v>74</v>
       </c>
       <c r="B271" t="s">
-        <v>23</v>
-      </c>
-      <c r="C271" t="n">
-        <v>44.0</v>
+        <v>37</v>
+      </c>
+      <c r="C271" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B272" t="s">
-        <v>49</v>
-      </c>
-      <c r="C272" t="n">
-        <v>65.0</v>
+        <v>76</v>
+      </c>
+      <c r="C272" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="s">
-        <v>48</v>
+        <v>74</v>
       </c>
       <c r="B273" t="s">
-        <v>134</v>
-      </c>
-      <c r="C273" t="n">
-        <v>42.0</v>
+        <v>210</v>
+      </c>
+      <c r="C273" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="B274" t="s">
-        <v>126</v>
-      </c>
-      <c r="C274" t="n">
-        <v>157.0</v>
+        <v>199</v>
+      </c>
+      <c r="C274" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="s">
-        <v>63</v>
+        <v>108</v>
       </c>
       <c r="B275" t="s">
-        <v>135</v>
-      </c>
-      <c r="C275" t="n">
-        <v>25.0</v>
+        <v>213</v>
+      </c>
+      <c r="C275" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="B276" t="s">
-        <v>110</v>
-      </c>
-      <c r="C276" t="n">
-        <v>180.0</v>
+        <v>130</v>
+      </c>
+      <c r="C276" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="B277" t="s">
-        <v>89</v>
-      </c>
-      <c r="C277" t="n">
-        <v>60.0</v>
+        <v>148</v>
+      </c>
+      <c r="C277" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B278" t="s">
-        <v>59</v>
-      </c>
-      <c r="C278" t="n">
-        <v>81.0</v>
+        <v>100</v>
+      </c>
+      <c r="C278" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B279" t="s">
-        <v>31</v>
-      </c>
-      <c r="C279" t="n">
-        <v>40.0</v>
+        <v>5</v>
+      </c>
+      <c r="C279" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B280" t="s">
-        <v>110</v>
-      </c>
-      <c r="C280" t="n">
-        <v>62.0</v>
+        <v>130</v>
+      </c>
+      <c r="C280" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="B281" t="s">
-        <v>75</v>
-      </c>
-      <c r="C281" t="n">
-        <v>146.0</v>
+        <v>129</v>
+      </c>
+      <c r="C281" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="B282" t="s">
-        <v>19</v>
-      </c>
-      <c r="C282" t="n">
-        <v>50.0</v>
+        <v>28</v>
+      </c>
+      <c r="C282" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B283" t="s">
-        <v>70</v>
-      </c>
-      <c r="C283" t="n">
-        <v>40.0</v>
+        <v>121</v>
+      </c>
+      <c r="C283" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B284" t="s">
-        <v>62</v>
-      </c>
-      <c r="C284" t="n">
-        <v>60.0</v>
+        <v>106</v>
+      </c>
+      <c r="C284" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B285" t="s">
-        <v>55</v>
-      </c>
-      <c r="C285" t="n">
-        <v>81.0</v>
+        <v>92</v>
+      </c>
+      <c r="C285" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="B286" t="s">
-        <v>14</v>
-      </c>
-      <c r="C286" t="n">
-        <v>204.0</v>
+        <v>19</v>
+      </c>
+      <c r="C286" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B287" t="s">
-        <v>136</v>
-      </c>
-      <c r="C287" t="n">
-        <v>45.0</v>
+        <v>216</v>
+      </c>
+      <c r="C287" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B288" t="s">
-        <v>75</v>
-      </c>
-      <c r="C288" t="n">
-        <v>84.0</v>
+        <v>129</v>
+      </c>
+      <c r="C288" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="289">
@@ -3676,296 +3928,296 @@
         <v>3</v>
       </c>
       <c r="B289" t="s">
-        <v>52</v>
-      </c>
-      <c r="C289" t="n">
-        <v>109.0</v>
+        <v>82</v>
+      </c>
+      <c r="C289" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B290" t="s">
-        <v>132</v>
-      </c>
-      <c r="C290" t="n">
-        <v>41.0</v>
+        <v>208</v>
+      </c>
+      <c r="C290" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="B291" t="s">
-        <v>59</v>
-      </c>
-      <c r="C291" t="n">
-        <v>56.0</v>
+        <v>100</v>
+      </c>
+      <c r="C291" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="s">
-        <v>46</v>
+        <v>71</v>
       </c>
       <c r="B292" t="s">
-        <v>27</v>
-      </c>
-      <c r="C292" t="n">
-        <v>50.0</v>
+        <v>43</v>
+      </c>
+      <c r="C292" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="B293" t="s">
-        <v>100</v>
-      </c>
-      <c r="C293" t="n">
-        <v>30.0</v>
+        <v>163</v>
+      </c>
+      <c r="C293" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="s">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="B294" t="s">
-        <v>137</v>
-      </c>
-      <c r="C294" t="n">
-        <v>63.0</v>
+        <v>218</v>
+      </c>
+      <c r="C294" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B295" t="s">
-        <v>60</v>
-      </c>
-      <c r="C295" t="n">
-        <v>85.0</v>
+        <v>36</v>
+      </c>
+      <c r="C295" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B296" t="s">
-        <v>67</v>
-      </c>
-      <c r="C296" t="n">
-        <v>85.0</v>
+        <v>114</v>
+      </c>
+      <c r="C296" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B297" t="s">
-        <v>116</v>
-      </c>
-      <c r="C297" t="n">
-        <v>60.0</v>
+        <v>185</v>
+      </c>
+      <c r="C297" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B298" t="s">
-        <v>22</v>
-      </c>
-      <c r="C298" t="n">
-        <v>30.0</v>
+        <v>35</v>
+      </c>
+      <c r="C298" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="B299" t="s">
-        <v>6</v>
-      </c>
-      <c r="C299" t="n">
-        <v>65.0</v>
+        <v>7</v>
+      </c>
+      <c r="C299" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="s">
-        <v>46</v>
+        <v>71</v>
       </c>
       <c r="B300" t="s">
-        <v>17</v>
-      </c>
-      <c r="C300" t="n">
-        <v>152.0</v>
+        <v>25</v>
+      </c>
+      <c r="C300" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B301" t="s">
-        <v>18</v>
-      </c>
-      <c r="C301" t="n">
-        <v>30.0</v>
+        <v>27</v>
+      </c>
+      <c r="C301" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="B302" t="s">
-        <v>12</v>
-      </c>
-      <c r="C302" t="n">
-        <v>180.0</v>
+        <v>16</v>
+      </c>
+      <c r="C302" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B303" t="s">
-        <v>12</v>
-      </c>
-      <c r="C303" t="n">
-        <v>40.0</v>
+        <v>16</v>
+      </c>
+      <c r="C303" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="s">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="B304" t="s">
-        <v>138</v>
-      </c>
-      <c r="C304" t="n">
-        <v>79.0</v>
+        <v>220</v>
+      </c>
+      <c r="C304" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B305" t="s">
-        <v>79</v>
-      </c>
-      <c r="C305" t="n">
-        <v>80.0</v>
+        <v>134</v>
+      </c>
+      <c r="C305" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="B306" t="s">
-        <v>126</v>
-      </c>
-      <c r="C306" t="n">
-        <v>50.0</v>
+        <v>199</v>
+      </c>
+      <c r="C306" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B307" t="s">
-        <v>139</v>
-      </c>
-      <c r="C307" t="n">
-        <v>44.0</v>
+        <v>222</v>
+      </c>
+      <c r="C307" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="B308" t="s">
-        <v>140</v>
-      </c>
-      <c r="C308" t="n">
-        <v>52.0</v>
+        <v>223</v>
+      </c>
+      <c r="C308" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B309" t="s">
-        <v>25</v>
-      </c>
-      <c r="C309" t="n">
-        <v>50.0</v>
+        <v>40</v>
+      </c>
+      <c r="C309" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B310" t="s">
-        <v>67</v>
-      </c>
-      <c r="C310" t="n">
-        <v>61.0</v>
+        <v>114</v>
+      </c>
+      <c r="C310" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="B311" t="s">
-        <v>31</v>
-      </c>
-      <c r="C311" t="n">
-        <v>95.0</v>
+        <v>5</v>
+      </c>
+      <c r="C311" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B312" t="s">
-        <v>66</v>
-      </c>
-      <c r="C312" t="n">
-        <v>174.0</v>
+        <v>112</v>
+      </c>
+      <c r="C312" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="B313" t="s">
-        <v>52</v>
-      </c>
-      <c r="C313" t="n">
-        <v>70.0</v>
+        <v>82</v>
+      </c>
+      <c r="C313" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B314" t="s">
-        <v>96</v>
-      </c>
-      <c r="C314" t="n">
-        <v>106.0</v>
+        <v>157</v>
+      </c>
+      <c r="C314" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="B315" t="s">
-        <v>16</v>
-      </c>
-      <c r="C315" t="n">
-        <v>31.0</v>
+        <v>23</v>
+      </c>
+      <c r="C315" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="316">
@@ -3973,153 +4225,153 @@
         <v>3</v>
       </c>
       <c r="B316" t="s">
-        <v>27</v>
-      </c>
-      <c r="C316" t="n">
-        <v>90.0</v>
+        <v>43</v>
+      </c>
+      <c r="C316" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B317" t="s">
-        <v>141</v>
-      </c>
-      <c r="C317" t="n">
-        <v>38.0</v>
+        <v>225</v>
+      </c>
+      <c r="C317" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B318" t="s">
-        <v>47</v>
-      </c>
-      <c r="C318" t="n">
-        <v>80.0</v>
+        <v>72</v>
+      </c>
+      <c r="C318" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="B319" t="s">
-        <v>40</v>
-      </c>
-      <c r="C319" t="n">
-        <v>60.0</v>
+        <v>62</v>
+      </c>
+      <c r="C319" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="s">
-        <v>142</v>
+        <v>226</v>
       </c>
       <c r="B320" t="s">
-        <v>53</v>
-      </c>
-      <c r="C320" t="n">
-        <v>47.0</v>
+        <v>84</v>
+      </c>
+      <c r="C320" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="B321" t="s">
         <v>4</v>
       </c>
-      <c r="C321" t="n">
-        <v>180.0</v>
+      <c r="C321" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B322" t="s">
-        <v>60</v>
-      </c>
-      <c r="C322" t="n">
-        <v>53.0</v>
+        <v>36</v>
+      </c>
+      <c r="C322" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="s">
-        <v>65</v>
+        <v>111</v>
       </c>
       <c r="B323" t="s">
-        <v>57</v>
-      </c>
-      <c r="C323" t="n">
-        <v>70.0</v>
+        <v>97</v>
+      </c>
+      <c r="C323" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B324" t="s">
-        <v>101</v>
-      </c>
-      <c r="C324" t="n">
-        <v>120.0</v>
+        <v>164</v>
+      </c>
+      <c r="C324" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="s">
-        <v>48</v>
+        <v>74</v>
       </c>
       <c r="B325" t="s">
-        <v>143</v>
-      </c>
-      <c r="C325" t="n">
-        <v>42.0</v>
+        <v>228</v>
+      </c>
+      <c r="C325" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="B326" t="s">
-        <v>38</v>
-      </c>
-      <c r="C326" t="n">
-        <v>57.0</v>
+        <v>59</v>
+      </c>
+      <c r="C326" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B327" t="s">
-        <v>144</v>
-      </c>
-      <c r="C327" t="n">
-        <v>36.0</v>
+        <v>161</v>
+      </c>
+      <c r="C327" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B328" t="s">
-        <v>145</v>
-      </c>
-      <c r="C328" t="n">
-        <v>40.0</v>
+        <v>229</v>
+      </c>
+      <c r="C328" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B329" t="s">
-        <v>25</v>
-      </c>
-      <c r="C329" t="n">
-        <v>70.0</v>
+        <v>40</v>
+      </c>
+      <c r="C329" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="330">
@@ -4127,32 +4379,32 @@
         <v>3</v>
       </c>
       <c r="B330" t="s">
-        <v>110</v>
-      </c>
-      <c r="C330" t="n">
-        <v>106.0</v>
+        <v>130</v>
+      </c>
+      <c r="C330" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="s">
-        <v>48</v>
+        <v>74</v>
       </c>
       <c r="B331" t="s">
-        <v>146</v>
-      </c>
-      <c r="C331" t="n">
-        <v>30.0</v>
+        <v>230</v>
+      </c>
+      <c r="C331" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="B332" t="s">
-        <v>38</v>
-      </c>
-      <c r="C332" t="n">
-        <v>80.0</v>
+        <v>59</v>
+      </c>
+      <c r="C332" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="333">
@@ -4160,32 +4412,32 @@
         <v>3</v>
       </c>
       <c r="B333" t="s">
-        <v>73</v>
-      </c>
-      <c r="C333" t="n">
-        <v>50.0</v>
+        <v>126</v>
+      </c>
+      <c r="C333" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="B334" t="s">
-        <v>20</v>
-      </c>
-      <c r="C334" t="n">
-        <v>70.0</v>
+        <v>30</v>
+      </c>
+      <c r="C334" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B335" t="s">
-        <v>35</v>
-      </c>
-      <c r="C335" t="n">
-        <v>70.0</v>
+        <v>55</v>
+      </c>
+      <c r="C335" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
